--- a/Exc2/FURPS.xlsx
+++ b/Exc2/FURPS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Код</t>
   </si>
@@ -51,6 +51,24 @@
     <t xml:space="preserve">Верификация действий клиента по коду из смс (push)</t>
   </si>
   <si>
+    <t xml:space="preserve">Сотрудник отделения может подать заявку напрямую в АБС, если клиент сразу придет в отделение, чтобы открыть депозит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прямое взаимодействие сотрудников отделения с АБС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сотрудник колл-центра должен обрабатывать заявки с сайта в системе колл-центра и отправлять их далее в АБС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обработка заявок с сайта для дальнейшей передачи в АБС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Менеджер по депозитным процессам обрабатывает заявки в бек-офисе, подтверждая условия депозита в АБС банка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функционал взаимодействия с АБС менеджера</t>
+  </si>
+  <si>
     <t xml:space="preserve">Идентификация клиента</t>
   </si>
   <si>
@@ -148,6 +166,24 @@
   </si>
   <si>
     <t xml:space="preserve">Защита передоваемых данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АБС поддерживает только вертикальное масштабирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Избегать необходимость в горизонтальном масштабирование системы АБС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дорабатывать функционал подрядчика в интернет-банке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Избегать доработки функционала подядчика в Интернет-банке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текущая платформа интернет-банка не совсместима с kafka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Избегать прямого подключения Интернет-банка с кафкой (см. п. выше)</t>
   </si>
   <si>
     <t>Изменяемость</t>
@@ -317,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,6 +369,9 @@
     </xf>
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,34 +972,34 @@
       </c>
     </row>
     <row r="6" ht="25.5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="25.5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" ht="25.5">
+    </row>
+    <row r="8" ht="15">
       <c r="A8" s="2"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="7"/>
+    <row r="9" ht="25.5">
+      <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
@@ -977,52 +1016,52 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" ht="30" customHeight="1">
+    <row r="11" ht="25.5">
       <c r="A11" s="2"/>
       <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" ht="25.5">
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" ht="25.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="15" t="s">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1038,21 +1077,21 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" ht="63.75">
+    <row r="18" ht="25.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15" t="s">
+    <row r="19" ht="25.5">
+      <c r="A19" s="8"/>
+      <c r="B19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1065,42 +1104,96 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" ht="15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" ht="63.75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="15" t="s">
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="51">
-      <c r="A23" s="7"/>
-      <c r="B23" s="15" t="s">
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" ht="15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" ht="15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" ht="15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" ht="15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" ht="15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="51">
+      <c r="A29" s="8"/>
+      <c r="B29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
